--- a/team_specific_matrix/New Orleans_B.xlsx
+++ b/team_specific_matrix/New Orleans_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1946564885496183</v>
+        <v>0.1939393939393939</v>
       </c>
       <c r="C2">
-        <v>0.5419847328244275</v>
+        <v>0.5393939393939394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01908396946564886</v>
+        <v>0.02121212121212121</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1183206106870229</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1259541984732824</v>
+        <v>0.1242424242424242</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006622516556291391</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C3">
-        <v>0.03311258278145696</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04635761589403974</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7748344370860927</v>
+        <v>0.7883597883597884</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1390728476821192</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1276595744680851</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02127659574468085</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P4">
-        <v>0.5957446808510638</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2553191489361702</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06211180124223602</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006211180124223602</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E6">
-        <v>0.0124223602484472</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="F6">
-        <v>0.08074534161490683</v>
+        <v>0.0845771144278607</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3105590062111801</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01863354037267081</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1863354037267081</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="R6">
-        <v>0.04968944099378882</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="S6">
-        <v>0.2732919254658385</v>
+        <v>0.2537313432835821</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1329479768786127</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0115606936416185</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05780346820809248</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1791907514450867</v>
+        <v>0.1735159817351598</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03468208092485549</v>
+        <v>0.0365296803652968</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1791907514450867</v>
+        <v>0.1735159817351598</v>
       </c>
       <c r="R7">
-        <v>0.08092485549132948</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="S7">
-        <v>0.3236994219653179</v>
+        <v>0.3287671232876712</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07329842931937172</v>
+        <v>0.08282828282828283</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01832460732984293</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="E8">
-        <v>0.002617801047120419</v>
+        <v>0.00202020202020202</v>
       </c>
       <c r="F8">
-        <v>0.05759162303664921</v>
+        <v>0.05656565656565657</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1727748691099476</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03926701570680628</v>
+        <v>0.04242424242424243</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1884816753926702</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="R8">
-        <v>0.09162303664921466</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S8">
-        <v>0.356020942408377</v>
+        <v>0.3616161616161616</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06504065040650407</v>
+        <v>0.08391608391608392</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008130081300813009</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08943089430894309</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1300813008130081</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2357723577235772</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="R9">
-        <v>0.07317073170731707</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="S9">
-        <v>0.3739837398373984</v>
+        <v>0.3776223776223776</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1297348484848485</v>
+        <v>0.1230188679245283</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03409090909090909</v>
+        <v>0.03169811320754717</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04734848484848485</v>
+        <v>0.04603773584905661</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1401515151515151</v>
+        <v>0.1388679245283019</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02651515151515152</v>
+        <v>0.02792452830188679</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.240530303030303</v>
+        <v>0.2332075471698113</v>
       </c>
       <c r="R10">
-        <v>0.06628787878787878</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="S10">
-        <v>0.3153409090909091</v>
+        <v>0.3350943396226415</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1353383458646616</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1165413533834586</v>
+        <v>0.1104477611940299</v>
       </c>
       <c r="K11">
-        <v>0.1879699248120301</v>
+        <v>0.1701492537313433</v>
       </c>
       <c r="L11">
-        <v>0.5601503759398496</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7364864864864865</v>
+        <v>0.735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2094594594594595</v>
+        <v>0.22</v>
       </c>
       <c r="K12">
-        <v>0.02027027027027027</v>
+        <v>0.015</v>
       </c>
       <c r="L12">
-        <v>0.02702702702702703</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006756756756756757</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01675977653631285</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1396648044692737</v>
+        <v>0.1163793103448276</v>
       </c>
       <c r="I15">
-        <v>0.07262569832402235</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="J15">
-        <v>0.3240223463687151</v>
+        <v>0.3405172413793103</v>
       </c>
       <c r="K15">
-        <v>0.07262569832402235</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0111731843575419</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="N15">
-        <v>0.0111731843575419</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="O15">
-        <v>0.02793296089385475</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3240223463687151</v>
+        <v>0.3275862068965517</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03508771929824561</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1169590643274854</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="I16">
-        <v>0.07602339181286549</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="J16">
-        <v>0.4444444444444444</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="K16">
-        <v>0.152046783625731</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01169590643274854</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02339181286549707</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1403508771929824</v>
+        <v>0.152073732718894</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02663438256658596</v>
+        <v>0.02549019607843137</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2106537530266344</v>
+        <v>0.2019607843137255</v>
       </c>
       <c r="I17">
-        <v>0.07990314769975787</v>
+        <v>0.07254901960784314</v>
       </c>
       <c r="J17">
-        <v>0.387409200968523</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="K17">
-        <v>0.09200968523002422</v>
+        <v>0.09607843137254903</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02905569007263923</v>
+        <v>0.02745098039215686</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06537530266343826</v>
+        <v>0.0607843137254902</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1089588377723971</v>
+        <v>0.1137254901960784</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01470588235294118</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1544117647058824</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="I18">
-        <v>0.05147058823529412</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="J18">
-        <v>0.4632352941176471</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="K18">
-        <v>0.08823529411764706</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007352941176470588</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O18">
-        <v>0.05147058823529412</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1691176470588235</v>
+        <v>0.1626506024096386</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01267159450897571</v>
+        <v>0.01144726083401472</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2365364308342133</v>
+        <v>0.2461161079313164</v>
       </c>
       <c r="I19">
-        <v>0.05807814149947202</v>
+        <v>0.05396565821749796</v>
       </c>
       <c r="J19">
-        <v>0.3505807814149947</v>
+        <v>0.3442354865085854</v>
       </c>
       <c r="K19">
-        <v>0.1277719112988384</v>
+        <v>0.1316434995911692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02006335797254488</v>
+        <v>0.02044153720359771</v>
       </c>
       <c r="N19">
-        <v>0.001055966209081309</v>
+        <v>0.0008176614881439084</v>
       </c>
       <c r="O19">
-        <v>0.06546990496304118</v>
+        <v>0.06541291905151267</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1277719112988384</v>
+        <v>0.1259198691741619</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Orleans_B.xlsx
+++ b/team_specific_matrix/New Orleans_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1939393939393939</v>
+        <v>0.1926345609065156</v>
       </c>
       <c r="C2">
-        <v>0.5393939393939394</v>
+        <v>0.5410764872521246</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02121212121212121</v>
+        <v>0.0226628895184136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1212121212121212</v>
+        <v>0.1218130311614731</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1242424242424242</v>
+        <v>0.1218130311614731</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005291005291005291</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="C3">
-        <v>0.02645502645502645</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03703703703703703</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7883597883597884</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.103448275862069</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01724137931034483</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P4">
-        <v>0.603448275862069</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.2698412698412698</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05472636815920398</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009950248756218905</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E6">
-        <v>0.009950248756218905</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="F6">
-        <v>0.0845771144278607</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3134328358208955</v>
+        <v>0.3105022831050228</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01990049751243781</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.208955223880597</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="R6">
-        <v>0.04477611940298507</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="S6">
-        <v>0.2537313432835821</v>
+        <v>0.273972602739726</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1415525114155251</v>
+        <v>0.1375</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0136986301369863</v>
+        <v>0.0125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0547945205479452</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1735159817351598</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0365296803652968</v>
+        <v>0.0375</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1735159817351598</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="R7">
-        <v>0.0776255707762557</v>
+        <v>0.075</v>
       </c>
       <c r="S7">
-        <v>0.3287671232876712</v>
+        <v>0.3416666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08282828282828283</v>
+        <v>0.08971962616822429</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0202020202020202</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="E8">
-        <v>0.00202020202020202</v>
+        <v>0.001869158878504673</v>
       </c>
       <c r="F8">
-        <v>0.05656565656565657</v>
+        <v>0.05981308411214954</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1575757575757576</v>
+        <v>0.1532710280373832</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04242424242424243</v>
+        <v>0.04299065420560748</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1878787878787879</v>
+        <v>0.1850467289719626</v>
       </c>
       <c r="R8">
-        <v>0.08888888888888889</v>
+        <v>0.08971962616822429</v>
       </c>
       <c r="S8">
-        <v>0.3616161616161616</v>
+        <v>0.3551401869158878</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08391608391608392</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006993006993006993</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0979020979020979</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1118881118881119</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02797202797202797</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2237762237762238</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="R9">
-        <v>0.06993006993006994</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="S9">
-        <v>0.3776223776223776</v>
+        <v>0.3825503355704698</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1230188679245283</v>
+        <v>0.1208944793850454</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03169811320754717</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04603773584905661</v>
+        <v>0.04542278127183787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1388679245283019</v>
+        <v>0.1418588399720475</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02792452830188679</v>
+        <v>0.02725366876310273</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2332075471698113</v>
+        <v>0.23340321453529</v>
       </c>
       <c r="R10">
-        <v>0.06415094339622641</v>
+        <v>0.06359189378057302</v>
       </c>
       <c r="S10">
-        <v>0.3350943396226415</v>
+        <v>0.3361285814116003</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1194029850746269</v>
+        <v>0.1212938005390836</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1104477611940299</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="K11">
-        <v>0.1701492537313433</v>
+        <v>0.1778975741239892</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.5983827493261455</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.735</v>
+        <v>0.7330316742081447</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.22</v>
+        <v>0.2262443438914027</v>
       </c>
       <c r="K12">
-        <v>0.015</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01</v>
+        <v>0.009049773755656109</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6956521739130435</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03017241379310345</v>
+        <v>0.03238866396761134</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1163793103448276</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="I15">
-        <v>0.05603448275862069</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J15">
-        <v>0.3405172413793103</v>
+        <v>0.3279352226720648</v>
       </c>
       <c r="K15">
-        <v>0.07327586206896551</v>
+        <v>0.0728744939271255</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01293103448275862</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="N15">
-        <v>0.008620689655172414</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="O15">
-        <v>0.03448275862068965</v>
+        <v>0.03643724696356275</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3275862068965517</v>
+        <v>0.3319838056680162</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03225806451612903</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1382488479262673</v>
+        <v>0.1361702127659574</v>
       </c>
       <c r="I16">
-        <v>0.07834101382488479</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="J16">
-        <v>0.4193548387096774</v>
+        <v>0.4212765957446808</v>
       </c>
       <c r="K16">
-        <v>0.1382488479262673</v>
+        <v>0.1404255319148936</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01382488479262673</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02764976958525346</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.152073732718894</v>
+        <v>0.1446808510638298</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02549019607843137</v>
+        <v>0.02757352941176471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2019607843137255</v>
+        <v>0.1966911764705882</v>
       </c>
       <c r="I17">
-        <v>0.07254901960784314</v>
+        <v>0.07169117647058823</v>
       </c>
       <c r="J17">
-        <v>0.4019607843137255</v>
+        <v>0.3988970588235294</v>
       </c>
       <c r="K17">
-        <v>0.09607843137254903</v>
+        <v>0.1047794117647059</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02745098039215686</v>
+        <v>0.02757352941176471</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0607843137254902</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1137254901960784</v>
+        <v>0.1139705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1686746987951807</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="I18">
-        <v>0.04819277108433735</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="J18">
-        <v>0.4457831325301205</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K18">
-        <v>0.09036144578313253</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01204819277108434</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N18">
-        <v>0.006024096385542169</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O18">
-        <v>0.05421686746987952</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1626506024096386</v>
+        <v>0.1555555555555556</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01144726083401472</v>
+        <v>0.01059001512859304</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2461161079313164</v>
+        <v>0.2488653555219364</v>
       </c>
       <c r="I19">
-        <v>0.05396565821749796</v>
+        <v>0.05143721633888049</v>
       </c>
       <c r="J19">
-        <v>0.3442354865085854</v>
+        <v>0.3456883509833585</v>
       </c>
       <c r="K19">
-        <v>0.1316434995911692</v>
+        <v>0.1316187594553707</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02044153720359771</v>
+        <v>0.01966717095310136</v>
       </c>
       <c r="N19">
-        <v>0.0008176614881439084</v>
+        <v>0.0007564296520423601</v>
       </c>
       <c r="O19">
-        <v>0.06541291905151267</v>
+        <v>0.06429652042360061</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1259198691741619</v>
+        <v>0.1270801815431165</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/New Orleans_B.xlsx
+++ b/team_specific_matrix/New Orleans_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1926345609065156</v>
+        <v>0.1858638743455497</v>
       </c>
       <c r="C2">
-        <v>0.5410764872521246</v>
+        <v>0.5549738219895288</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0226628895184136</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1218130311614731</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1218130311614731</v>
+        <v>0.1178010471204188</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004901960784313725</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="C3">
-        <v>0.02450980392156863</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0392156862745098</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7941176470588235</v>
+        <v>0.7822222222222223</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1372549019607843</v>
+        <v>0.1422222222222222</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1111111111111111</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01587301587301587</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="P4">
-        <v>0.6031746031746031</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2698412698412698</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0502283105022831</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0091324200913242</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E6">
-        <v>0.0091324200913242</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="F6">
-        <v>0.0867579908675799</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3105022831050228</v>
+        <v>0.3067729083665339</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0182648401826484</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1917808219178082</v>
+        <v>0.1792828685258964</v>
       </c>
       <c r="R6">
-        <v>0.0502283105022831</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="S6">
-        <v>0.273972602739726</v>
+        <v>0.2788844621513944</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1375</v>
+        <v>0.1368821292775665</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0125</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05416666666666667</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1708333333333333</v>
+        <v>0.1749049429657795</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0375</v>
+        <v>0.03422053231939164</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1708333333333333</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="R7">
-        <v>0.075</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="S7">
-        <v>0.3416666666666667</v>
+        <v>0.3422053231939163</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08971962616822429</v>
+        <v>0.09330985915492958</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02242990654205607</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="E8">
-        <v>0.001869158878504673</v>
+        <v>0.00176056338028169</v>
       </c>
       <c r="F8">
-        <v>0.05981308411214954</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1532710280373832</v>
+        <v>0.1496478873239437</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.04299065420560748</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1850467289719626</v>
+        <v>0.2007042253521127</v>
       </c>
       <c r="R8">
-        <v>0.08971962616822429</v>
+        <v>0.08626760563380281</v>
       </c>
       <c r="S8">
-        <v>0.3551401869158878</v>
+        <v>0.3485915492957746</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08053691275167785</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006711409395973154</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1073825503355705</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1073825503355705</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02684563758389262</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2147651006711409</v>
+        <v>0.2085889570552147</v>
       </c>
       <c r="R9">
-        <v>0.0738255033557047</v>
+        <v>0.0736196319018405</v>
       </c>
       <c r="S9">
-        <v>0.3825503355704698</v>
+        <v>0.392638036809816</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1208944793850454</v>
+        <v>0.1169480925578487</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03144654088050314</v>
+        <v>0.03064415259537211</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04542278127183787</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1418588399720475</v>
+        <v>0.1407129455909944</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02725366876310273</v>
+        <v>0.02626641651031895</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.23340321453529</v>
+        <v>0.2338961851156973</v>
       </c>
       <c r="R10">
-        <v>0.06359189378057302</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="S10">
-        <v>0.3361285814116003</v>
+        <v>0.3352095059412132</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1212938005390836</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1024258760107817</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="K11">
-        <v>0.1778975741239892</v>
+        <v>0.1849148418491484</v>
       </c>
       <c r="L11">
-        <v>0.5983827493261455</v>
+        <v>0.5815085158150851</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7330316742081447</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2262443438914027</v>
+        <v>0.2175732217573222</v>
       </c>
       <c r="K12">
-        <v>0.01357466063348416</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="L12">
-        <v>0.01809954751131222</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.009049773755656109</v>
+        <v>0.008368200836820083</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6730769230769231</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2884615384615384</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03238866396761134</v>
+        <v>0.02909090909090909</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1174089068825911</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="I15">
-        <v>0.05263157894736842</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="J15">
-        <v>0.3279352226720648</v>
+        <v>0.3418181818181818</v>
       </c>
       <c r="K15">
-        <v>0.0728744939271255</v>
+        <v>0.06909090909090909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02024291497975709</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N15">
-        <v>0.008097165991902834</v>
+        <v>0.007272727272727273</v>
       </c>
       <c r="O15">
-        <v>0.03643724696356275</v>
+        <v>0.04</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3319838056680162</v>
+        <v>0.3345454545454545</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03404255319148936</v>
+        <v>0.0311284046692607</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1361702127659574</v>
+        <v>0.132295719844358</v>
       </c>
       <c r="I16">
-        <v>0.08085106382978724</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="J16">
-        <v>0.4212765957446808</v>
+        <v>0.4357976653696498</v>
       </c>
       <c r="K16">
-        <v>0.1404255319148936</v>
+        <v>0.1400778210116732</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01276595744680851</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02978723404255319</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1446808510638298</v>
+        <v>0.1439688715953307</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02757352941176471</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1966911764705882</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="I17">
-        <v>0.07169117647058823</v>
+        <v>0.06776859504132231</v>
       </c>
       <c r="J17">
-        <v>0.3988970588235294</v>
+        <v>0.4132231404958678</v>
       </c>
       <c r="K17">
-        <v>0.1047794117647059</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02757352941176471</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05882352941176471</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1139705882352941</v>
+        <v>0.112396694214876</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01111111111111111</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1777777777777778</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.04444444444444445</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="J18">
-        <v>0.4444444444444444</v>
+        <v>0.4336734693877551</v>
       </c>
       <c r="K18">
-        <v>0.08888888888888889</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02222222222222222</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N18">
-        <v>0.005555555555555556</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.05102040816326531</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1555555555555556</v>
+        <v>0.163265306122449</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01059001512859304</v>
+        <v>0.01377410468319559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2488653555219364</v>
+        <v>0.2403581267217631</v>
       </c>
       <c r="I19">
-        <v>0.05143721633888049</v>
+        <v>0.05234159779614325</v>
       </c>
       <c r="J19">
-        <v>0.3456883509833585</v>
+        <v>0.349862258953168</v>
       </c>
       <c r="K19">
-        <v>0.1316187594553707</v>
+        <v>0.1294765840220386</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01966717095310136</v>
+        <v>0.01928374655647383</v>
       </c>
       <c r="N19">
-        <v>0.0007564296520423601</v>
+        <v>0.0006887052341597796</v>
       </c>
       <c r="O19">
-        <v>0.06429652042360061</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1270801815431165</v>
+        <v>0.1260330578512397</v>
       </c>
     </row>
   </sheetData>
